--- a/src/test/java/Subscriptions/Data/Order_Positions_Subscription.xlsx
+++ b/src/test/java/Subscriptions/Data/Order_Positions_Subscription.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_OMSAPI\src\test\java\Subscriptions\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E0E6ED-26C7-44BD-8FFC-A3F21FD65858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BCE2F1-FB18-4457-BA93-85EA9ECB44B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="363" firstSheet="2" activeTab="2" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="363" firstSheet="1" activeTab="2" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="SubscribeBUYOrder_Positions" sheetId="10" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="189">
   <si>
     <t>Content_Type</t>
   </si>
@@ -635,6 +635,130 @@
   </si>
   <si>
     <t>LSL-AA-1LOC-LOCA-123456-M</t>
+  </si>
+  <si>
+    <t>Order_BUY_Position_TC0003</t>
+  </si>
+  <si>
+    <t>LSL-BF.B-1LOC-LOCA-123456-M</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "1",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "1LOC-LOCA-123456-M",
+    "orderQty":6,
+    "symbol": "BF.B",
+    "Price": 45,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>Order_SELL_Position_TC0003</t>
+  </si>
+  <si>
+    <t>Order_SELL_Position_TC0004</t>
+  </si>
+  <si>
+    <t>Order_ShortSell_Position_TC0003</t>
+  </si>
+  <si>
+    <t>LSL-IBM-1LOC-LOCA-123456-M</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "5",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "1LOC-LOCA-123456-M",
+    "orderQty":10,
+    "symbol": "IBM",
+    "Price": 70,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>LSL-BRK.B-10005-LONG</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "1",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty":10,
+    "symbol": "BRK.B",
+    "Price": 50,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "2",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty":5,
+    "symbol": "BRK.B",
+    "Price": 50,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>BRK.B</t>
+  </si>
+  <si>
+    <t>LSL-BRK.B-1LOC-LOCA-123456-M</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "1",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "1LOC-LOCA-123456-M",
+    "orderQty":10,
+    "symbol": "BRK.B",
+    "Price": 50,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "2",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "1LOC-LOCA-123456-M",
+    "orderQty":5,
+    "symbol": "BRK.B",
+    "Price": 50,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>Order_BUY_Position_TC0004</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "1",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "1LOC-LOCA-123456-M",
+    "orderQty":6,
+    "symbol": "IBM",
+    "Price": 45,
+    "StopPx": 0
+ }</t>
   </si>
 </sst>
 </file>
@@ -1053,15 +1177,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41536820-D56A-41BA-A388-6D13CFA1508B}">
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="1" max="1" width="43.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -1620,6 +1744,346 @@
         <v>18</v>
       </c>
     </row>
+    <row r="4" spans="1:56" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>200</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="P4" s="5">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" s="3">
+        <v>200</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" s="7">
+        <v>2</v>
+      </c>
+      <c r="V4" s="7">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>45</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>6</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>6</v>
+      </c>
+      <c r="AK4" s="8">
+        <v>45</v>
+      </c>
+      <c r="AL4" s="7">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56" ht="165" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>200</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="P5" s="5">
+        <v>200</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" s="3">
+        <v>200</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U5" s="7">
+        <v>2</v>
+      </c>
+      <c r="V5" s="7">
+        <v>1</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>45</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>6</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ5" s="8">
+        <v>6</v>
+      </c>
+      <c r="AK5" s="8">
+        <v>45</v>
+      </c>
+      <c r="AL5" s="7">
+        <v>2</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY5" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AZ5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>157</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1629,10 +2093,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15354E9-A12D-477E-BEEA-7D159746C6E7}">
-  <dimension ref="A1:CK3"/>
+  <dimension ref="A1:CK5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="CF1" workbookViewId="0">
+      <selection activeCell="CI14" sqref="CI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,7 +2111,7 @@
     <col min="8" max="14" width="30.42578125" customWidth="1"/>
     <col min="15" max="15" width="155.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="63.7109375" customWidth="1"/>
+    <col min="18" max="18" width="171.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="30.5703125" customWidth="1"/>
     <col min="20" max="20" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="43.28515625" bestFit="1" customWidth="1"/>
@@ -2520,7 +2984,546 @@
         <v>18</v>
       </c>
     </row>
+    <row r="4" spans="1:89" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>200</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="P4" s="5">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="S4" s="5">
+        <v>200</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" s="3">
+        <v>200</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X4" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR4" s="3">
+        <v>200</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX4" s="8">
+        <v>10</v>
+      </c>
+      <c r="AY4" s="8">
+        <v>50</v>
+      </c>
+      <c r="AZ4" s="7">
+        <v>2</v>
+      </c>
+      <c r="BA4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BI4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BJ4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BK4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BL4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="BN4" s="7">
+        <v>2</v>
+      </c>
+      <c r="BO4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="BP4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="BQ4" s="8">
+        <v>5</v>
+      </c>
+      <c r="BR4" s="8">
+        <v>50</v>
+      </c>
+      <c r="BS4" s="7">
+        <v>2</v>
+      </c>
+      <c r="BT4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="BU4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BV4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BW4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BX4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="BY4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="BZ4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="CA4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="CC4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="CD4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="CE4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="CF4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="CG4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CH4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="CI4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="CJ4" s="7">
+        <v>10005</v>
+      </c>
+      <c r="CK4" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:89" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>200</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="P5" s="5">
+        <v>200</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="S5" s="5">
+        <v>200</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V5" s="3">
+        <v>200</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>2</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR5" s="3">
+        <v>200</v>
+      </c>
+      <c r="AS5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AX5" s="8">
+        <v>10</v>
+      </c>
+      <c r="AY5" s="8">
+        <v>50</v>
+      </c>
+      <c r="AZ5" s="7">
+        <v>2</v>
+      </c>
+      <c r="BA5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BI5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BJ5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BK5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BL5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="BN5" s="7">
+        <v>2</v>
+      </c>
+      <c r="BO5" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="BP5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="BQ5" s="8">
+        <v>5</v>
+      </c>
+      <c r="BR5" s="8">
+        <v>50</v>
+      </c>
+      <c r="BS5" s="7">
+        <v>2</v>
+      </c>
+      <c r="BT5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="BU5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BV5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BW5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BX5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="BY5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="BZ5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="CA5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="CC5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="CD5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="CE5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="CF5" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="CG5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CH5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="CI5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="CJ5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="CK5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
@@ -2531,10 +3534,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D39DA1-E5AF-4463-97D3-6B38F9873B9C}">
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2545,7 +3548,7 @@
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="14" width="30.42578125" customWidth="1"/>
     <col min="15" max="15" width="155.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="32" bestFit="1" customWidth="1"/>
@@ -2758,7 +3761,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:56" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -2786,22 +3789,22 @@
       <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="10" t="s">
+      <c r="K2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="10" t="s">
+      <c r="M2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>167</v>
       </c>
       <c r="P2" s="5">
@@ -2928,7 +3931,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:56" ht="165" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>161</v>
       </c>
@@ -2971,7 +3974,7 @@
       <c r="N3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="3" t="s">
         <v>168</v>
       </c>
       <c r="P3" s="5">
@@ -3095,6 +4098,176 @@
         <v>157</v>
       </c>
       <c r="BD3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>200</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="P4" s="5">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" s="3">
+        <v>200</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" s="7">
+        <v>2</v>
+      </c>
+      <c r="V4" s="7">
+        <v>5</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>70</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>10</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>5</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>10</v>
+      </c>
+      <c r="AK4" s="8">
+        <v>70</v>
+      </c>
+      <c r="AL4" s="7">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AZ4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BD4" t="s">
         <v>18</v>
       </c>
     </row>

--- a/src/test/java/Subscriptions/Data/Order_Positions_Subscription.xlsx
+++ b/src/test/java/Subscriptions/Data/Order_Positions_Subscription.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_OMSAPI\src\test\java\Subscriptions\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APIAutomation\Automation_OMSAPI\src\test\java\Subscriptions\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BCE2F1-FB18-4457-BA93-85EA9ECB44B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370D7814-A014-41EB-B61F-E8EFAF3861B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="363" firstSheet="1" activeTab="2" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="363" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="SubscribeBUYOrder_Positions" sheetId="10" r:id="rId1"/>
@@ -833,7 +833,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -863,6 +863,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -881,9 +886,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -921,7 +926,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1027,7 +1032,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1169,7 +1174,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1179,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41536820-D56A-41BA-A388-6D13CFA1508B}">
   <dimension ref="A1:BD5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="AY21" sqref="AY21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,180 +1240,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AL1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AU1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AV1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AW1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AY1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="AZ1" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BA1" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BB1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BC1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BD1" s="13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="17" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1426,25 +1431,25 @@
       <c r="G2" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="17" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="10" t="s">
+      <c r="K2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="10" t="s">
+      <c r="M2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="3" t="s">
@@ -1564,21 +1569,21 @@
       <c r="BA2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BB2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" s="17">
         <v>10005</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BD2" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="17" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1596,25 +1601,25 @@
       <c r="G3" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="10" t="s">
+      <c r="K3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="10" t="s">
+      <c r="M3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="3" t="s">
@@ -1734,21 +1739,21 @@
       <c r="BA3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BB3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" s="17">
         <v>10005</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BD3" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:56" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="17" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1766,28 +1771,28 @@
       <c r="G4" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="17" t="s">
         <v>158</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="10" t="s">
+      <c r="K4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="10" t="s">
+      <c r="M4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>173</v>
       </c>
       <c r="P4" s="5">
@@ -1904,21 +1909,21 @@
       <c r="BA4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BB4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BC4" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BD4" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:56" ht="165" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="17" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1936,28 +1941,28 @@
       <c r="G5" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="17" t="s">
         <v>158</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="10" t="s">
+      <c r="K5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="10" t="s">
+      <c r="M5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>188</v>
       </c>
       <c r="P5" s="5">
@@ -2074,13 +2079,13 @@
       <c r="BA5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BB5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BC5" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BD5" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3536,8 +3541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D39DA1-E5AF-4463-97D3-6B38F9873B9C}">
   <dimension ref="A1:BD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
